--- a/data/trans_orig/P22S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22S3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5845E04-31E1-499D-B525-5CCB0CBB45D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{426A8A0F-7E3B-4D9D-A730-FFD1136BEF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{826363FC-E235-44EE-9F05-0C6ACC598D6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2175320C-12F4-4327-9600-AF3D2D5CD44C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="60">
   <si>
     <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -116,76 +116,76 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,27%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>0,24%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
+    <t>99,24%</t>
   </si>
   <si>
     <t>99,94%</t>
@@ -194,25 +194,22 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,57%</t>
+    <t>99,6%</t>
   </si>
   <si>
     <t>99,97%</t>
   </si>
   <si>
+    <t>0,12%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
     <t>0,01%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
+    <t>99,73%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -630,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F853E3E9-533F-4B01-8AE2-23F2BBD59B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798EAB9-4B10-4675-AD30-687EE7EFB551}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1098,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1119,7 +1116,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1164,10 +1161,10 @@
         <v>2159737</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>19</v>
@@ -1176,13 +1173,13 @@
         <v>2920</v>
       </c>
       <c r="I12" s="7">
-        <v>2248659</v>
+        <v>2248660</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>19</v>
@@ -1194,13 +1191,13 @@
         <v>4408397</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1227,7 +1224,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>21</v>
@@ -1289,22 +1286,22 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,13 +1331,13 @@
         <v>1565</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -1349,13 +1346,13 @@
         <v>1565</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,7 +1382,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -1400,13 +1397,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1531,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1546,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1555,13 +1552,13 @@
         <v>2047</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,7 +1573,7 @@
         <v>1099</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
@@ -1597,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -1612,7 +1609,7 @@
         <v>56</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -1648,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -1663,7 +1660,7 @@
         <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1675,13 +1672,13 @@
         <v>3362</v>
       </c>
       <c r="D22" s="7">
-        <v>3374410</v>
+        <v>3374409</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>19</v>
@@ -1693,25 +1690,25 @@
         <v>3796527</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M22" s="7">
         <v>8710</v>
       </c>
       <c r="N22" s="7">
-        <v>7170937</v>
+        <v>7170936</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>53</v>
@@ -1726,7 +1723,7 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -1756,7 +1753,7 @@
         <v>8716</v>
       </c>
       <c r="N23" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>21</v>
@@ -1770,7 +1767,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P22S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22S3-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426A8A0F-7E3B-4D9D-A730-FFD1136BEF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{852CCE4C-15E6-4B24-ABB8-906B83CC5F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2175320C-12F4-4327-9600-AF3D2D5CD44C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5069A2F-13A4-4DCD-9C9B-50C8368B680D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -627,7 +627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C798EAB9-4B10-4675-AD30-687EE7EFB551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B92A32B-2108-4B08-8C8F-F749FE4733F9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
